--- a/solution/Praxis1.xlsx
+++ b/solution/Praxis1.xlsx
@@ -562,7 +562,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11:P11"/>
+      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,24 +646,18 @@
       <c r="F2" s="5"/>
       <c r="G2" s="20"/>
       <c r="H2" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>-10</v>
       </c>
       <c r="N2" s="6" t="n">
         <f aca="false">SUM(F2:L2)</f>
-        <v>78.5</v>
+        <v>11</v>
       </c>
       <c r="P2" s="21" t="n">
         <f aca="false">N2+M2</f>
-        <v>68.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,28 +674,24 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="G3" s="20" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <v>11</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.5</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>-10</v>
       </c>
       <c r="N3" s="6" t="n">
         <f aca="false">SUM(F3:L3)</f>
-        <v>89.5</v>
+        <v>77</v>
       </c>
       <c r="P3" s="21" t="n">
         <f aca="false">N3+M3</f>
-        <v>79.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,21 +711,20 @@
       <c r="G4" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M4" s="19"/>
       <c r="N4" s="6" t="n">
         <f aca="false">SUM(F4:L4)</f>
-        <v>23.5</v>
+        <v>33</v>
       </c>
       <c r="P4" s="21" t="n">
         <f aca="false">N4+M4</f>
-        <v>23.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,24 +741,19 @@
         <v>22</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="20" t="n">
-        <v>22</v>
-      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M5" s="19"/>
       <c r="N5" s="6" t="n">
         <f aca="false">SUM(F5:L5)</f>
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="P5" s="21" t="n">
         <f aca="false">N5+M5</f>
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +992,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="1" sqref="N11:P11 A5"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
